--- a/settings/data/装备.xlsx
+++ b/settings/data/装备.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\godot\godot-xiuxian\settings\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{260C73A3-08AB-4F8B-940F-001653864319}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A2EC830-BE0B-43DF-A2F0-F7761D6C9D7D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="32205" windowHeight="18060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -176,7 +176,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="85">
   <si>
     <t>恭喜你！</t>
   </si>
@@ -459,6 +459,22 @@
 "growth_factor":0|
 "score":0|</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化等级</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"min_v":1|
+"max_v":10|
+"current":0|
+"min_growth":0|
+"max_growth":0|
+"growth_factor":0|
+"score":0|</t>
+  </si>
+  <si>
+    <t>"current":1|</t>
   </si>
 </sst>
 </file>
@@ -897,34 +913,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="4" width="26.625" customWidth="1"/>
-    <col min="5" max="5" width="43.375" customWidth="1"/>
-    <col min="6" max="8" width="28.875" customWidth="1"/>
+    <col min="2" max="3" width="26.625" customWidth="1"/>
+    <col min="4" max="4" width="43.375" customWidth="1"/>
+    <col min="5" max="5" width="18.375" customWidth="1"/>
+    <col min="6" max="9" width="28.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>9</v>
@@ -935,22 +952,25 @@
       <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>23</v>
@@ -961,91 +981,97 @@
       <c r="H2" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>68</v>
-      </c>
       <c r="F3" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="H3" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="I3" s="7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0</v>
       </c>
-      <c r="B4">
-        <v>0</v>
+      <c r="B4" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="8" t="s">
         <v>73</v>
       </c>
+      <c r="D4" s="9" t="s">
+        <v>75</v>
+      </c>
       <c r="E4" s="9" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F4" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="H4" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="I4" s="9" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5">
-        <v>1</v>
+      <c r="B5" s="8" t="s">
+        <v>67</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="E5" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
-      <c r="B6">
-        <v>1</v>
+      <c r="B6" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D6" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="D6" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>

--- a/settings/data/装备.xlsx
+++ b/settings/data/装备.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\godot\godot-xiuxian\settings\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\devSoft\godot\Godot_v4.3-stable_win64.exe\新建文件夹\修仙1.1\settings\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A2EC830-BE0B-43DF-A2F0-F7761D6C9D7D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81BD0195-52FC-4F3A-88E6-ED717CC36C47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="32205" windowHeight="18060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10800" windowHeight="12900" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="~首页" sheetId="2" r:id="rId1"/>
     <sheet name="Weapon" sheetId="1" r:id="rId2"/>
-    <sheet name="示例-demo2" sheetId="3" r:id="rId3"/>
+    <sheet name="Property" sheetId="3" r:id="rId3"/>
+    <sheet name="Monster" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
@@ -175,8 +176,85 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>邓煊</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{71E05367-63C6-40C3-B0F2-58022ECF665A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>邓煊:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+字段类型
+这个类型决定了用哪个类型转换器解析</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{543B782D-E787-4F74-B889-F9849B9C733A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>邓煊:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+字段注释</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{89FED796-1E79-40A3-91B8-C2E74B28E27C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>邓煊:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+字段名</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="57">
   <si>
     <t>恭喜你！</t>
   </si>
@@ -193,184 +271,28 @@
     <t>string</t>
   </si>
   <si>
-    <t>bool</t>
-  </si>
-  <si>
     <t>array</t>
   </si>
   <si>
-    <t>array_str</t>
-  </si>
-  <si>
-    <t>array_bool</t>
-  </si>
-  <si>
     <t>dict</t>
   </si>
   <si>
-    <t>function</t>
-  </si>
-  <si>
-    <t>function(a,b=null,c=null)</t>
-  </si>
-  <si>
-    <t>tr_string</t>
-  </si>
-  <si>
-    <t>tr_array_str</t>
-  </si>
-  <si>
-    <t>tr_dict</t>
-  </si>
-  <si>
     <t>编号</t>
   </si>
   <si>
-    <t>整形</t>
-  </si>
-  <si>
     <t>浮点</t>
   </si>
   <si>
     <t>字符串</t>
   </si>
   <si>
-    <t>布尔</t>
-  </si>
-  <si>
     <t>数组</t>
   </si>
   <si>
-    <t>字符数组</t>
-  </si>
-  <si>
-    <t>布尔数组</t>
-  </si>
-  <si>
     <t>字典</t>
   </si>
   <si>
-    <t>函数</t>
-  </si>
-  <si>
-    <t>固定参数函数</t>
-  </si>
-  <si>
-    <t>*忽略字段（不会导出）</t>
-  </si>
-  <si>
-    <t>翻译字符串</t>
-  </si>
-  <si>
-    <t>未命名字段</t>
-  </si>
-  <si>
-    <t>翻译字符数组</t>
-  </si>
-  <si>
-    <t>翻译字典</t>
-  </si>
-  <si>
     <t>id</t>
-  </si>
-  <si>
-    <t>_int</t>
-  </si>
-  <si>
-    <t>_string</t>
-  </si>
-  <si>
-    <t>_bool</t>
-  </si>
-  <si>
-    <t>_array</t>
-  </si>
-  <si>
-    <t>_array_str</t>
-  </si>
-  <si>
-    <t>_array_bool</t>
-  </si>
-  <si>
-    <t>_dict</t>
-  </si>
-  <si>
-    <t>_function</t>
-  </si>
-  <si>
-    <t>_function_params</t>
-  </si>
-  <si>
-    <t>*string</t>
-  </si>
-  <si>
-    <t>_tr_string</t>
-  </si>
-  <si>
-    <t>_tr_array_str</t>
-  </si>
-  <si>
-    <t>_tr_dict</t>
-  </si>
-  <si>
-    <t>恭喜你！成功配置好了Godot导表项目。</t>
-  </si>
-  <si>
-    <t>1|2|3|4|5</t>
-  </si>
-  <si>
-    <t>a|b|c</t>
-  </si>
-  <si>
-    <t>TRUE|FALSE</t>
-  </si>
-  <si>
-    <t>"name":"Tom"|"age":10</t>
-  </si>
-  <si>
-    <t>这段话你在表里看不到</t>
-  </si>
-  <si>
-    <t>这个字段没命名，不导出</t>
-  </si>
-  <si>
-    <t>aa</t>
-  </si>
-  <si>
-    <t>1|2|3</t>
-  </si>
-  <si>
-    <t>b|c</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>哈哈</t>
-  </si>
-  <si>
-    <t>你真可悲，你什么都不是，你毫无作为，你无足轻重，你一无是处。
-我，整个城市都是我的。
-等警察抓住你们的时候......你会死的毫无意义。这里是我的地盘。
-你...你....你就是人们要躲避的东西。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_float </t>
-  </si>
-  <si>
-    <t>print(args)</t>
-  </si>
-  <si>
-    <t>print(a)</t>
-  </si>
-  <si>
-    <t>这段话需要翻译1</t>
-  </si>
-  <si>
-    <t>这段话需要翻译2</t>
-  </si>
-  <si>
-    <t>"name":"Tom2"|"age":10</t>
   </si>
   <si>
     <t>名称</t>
@@ -476,12 +398,91 @@
   <si>
     <t>"current":1|</t>
   </si>
+  <si>
+    <t>name_str</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>current_value</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>min_v</t>
+  </si>
+  <si>
+    <t>max_v</t>
+  </si>
+  <si>
+    <t>growth_min</t>
+  </si>
+  <si>
+    <t>growth_max</t>
+  </si>
+  <si>
+    <t>growth_factor</t>
+  </si>
+  <si>
+    <t>grow_value</t>
+  </si>
+  <si>
+    <t>data_type</t>
+  </si>
+  <si>
+    <t>Property</t>
+  </si>
+  <si>
+    <t>BASE</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>RANDOM</t>
+  </si>
+  <si>
+    <t>RANDOM</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BAR</t>
+  </si>
+  <si>
+    <t>BAR</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命值</t>
+  </si>
+  <si>
+    <t>攻击力</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御力</t>
+  </si>
+  <si>
+    <t>怪物1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>整形</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>lv</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物2</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -550,6 +551,27 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFA31515"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -600,16 +622,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="1" builtinId="27"/>
@@ -887,22 +909,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:B3"/>
+  <dimension ref="A2:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:2" ht="89.25" x14ac:dyDescent="1.1499999999999999">
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="1:3" ht="89.25" x14ac:dyDescent="1.1499999999999999">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:2" ht="89.25" x14ac:dyDescent="1.1499999999999999">
-      <c r="B3" s="6" t="s">
+    <row r="3" spans="1:3" ht="89.25" x14ac:dyDescent="1.1499999999999999">
+      <c r="B3" s="4" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -915,8 +970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -938,140 +993,140 @@
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>71</v>
+      <c r="G3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>81</v>
+      <c r="B4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="H5" s="9"/>
+      <c r="B5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="H6" s="9"/>
+      <c r="B6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -1083,302 +1138,209 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="64.875" customWidth="1"/>
-    <col min="8" max="8" width="10.25" customWidth="1"/>
-    <col min="9" max="9" width="28.875" customWidth="1"/>
-    <col min="10" max="10" width="28.75" customWidth="1"/>
-    <col min="11" max="11" width="30" customWidth="1"/>
-    <col min="12" max="12" width="64.875" customWidth="1"/>
-    <col min="13" max="13" width="15.5" customWidth="1"/>
-    <col min="14" max="14" width="26.75" customWidth="1"/>
-    <col min="15" max="15" width="13.625" customWidth="1"/>
-    <col min="16" max="16" width="28.875" customWidth="1"/>
+    <col min="6" max="6" width="11.625" customWidth="1"/>
+    <col min="7" max="7" width="12.875" customWidth="1"/>
+    <col min="9" max="9" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="D3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="E3" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="F3" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="G3" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="H3" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="I3" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="J3" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>20</v>
+      </c>
+      <c r="H4">
         <v>1</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
         <v>47</v>
       </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
-        <v>49</v>
-      </c>
-      <c r="J4" t="s">
-        <v>59</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="O4" t="s">
-        <v>47</v>
-      </c>
-      <c r="P4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="D5" t="s">
-        <v>52</v>
-      </c>
-      <c r="M5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B5" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>20</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>3.01</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="E6" t="b">
         <v>0</v>
       </c>
-      <c r="F6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G6" t="s">
-        <v>54</v>
-      </c>
-      <c r="H6" t="s">
-        <v>55</v>
-      </c>
-      <c r="I6" t="s">
-        <v>49</v>
-      </c>
-      <c r="M6" t="s">
-        <v>62</v>
-      </c>
-      <c r="O6" t="s">
-        <v>54</v>
-      </c>
-      <c r="P6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>4.5</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <v>3.01</v>
-      </c>
-      <c r="E7" t="s">
-        <v>56</v>
-      </c>
-      <c r="P7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="57" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="D6">
         <v>5</v>
       </c>
-      <c r="B8">
-        <v>4</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="L8" s="5"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>6</v>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>0.5</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1386,5 +1348,100 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D5036E2C-78E6-4D6A-98DE-E14D3AB921D0}">
+          <x14:formula1>
+            <xm:f>'~首页'!$C$6:$C$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>J1:J1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE9E4EAF-222D-4846-B472-D04A8055710B}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>